--- a/ResultadoEleicoesDistritos/VISEU_MOIMENTA DA BEIRA.xlsx
+++ b/ResultadoEleicoesDistritos/VISEU_MOIMENTA DA BEIRA.xlsx
@@ -597,64 +597,64 @@
         <v>2983</v>
       </c>
       <c r="H2" t="n">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="I2" t="n">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="J2" t="n">
-        <v>1276</v>
+        <v>1229</v>
       </c>
       <c r="K2" t="n">
         <v>4</v>
       </c>
       <c r="L2" t="n">
-        <v>332</v>
+        <v>291</v>
       </c>
       <c r="M2" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="N2" t="n">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q2" t="n">
         <v>2</v>
       </c>
       <c r="R2" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="S2" t="n">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="T2" t="n">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="U2" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="V2" t="n">
-        <v>1919</v>
+        <v>1942</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X2" t="n">
-        <v>1854</v>
+        <v>1941</v>
       </c>
       <c r="Y2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Z2" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AA2" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
